--- a/biology/Médecine/Edward_Tabah/Edward_Tabah.xlsx
+++ b/biology/Médecine/Edward_Tabah/Edward_Tabah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward John Tabah était un médecin et professeur québécois né en 1918 et décédé à Montréal le 2 mars 2001.
 Il a commencé sa carrière dams les Forces armées canadiennes en 1943 puis s'est join à l’hôpital Royal Victoria en 1946. Il est ensuite allé à New York pour 5 ans afin d’étudier le traitement de cancer au Memorial Sloan-Kettering Cancer Center. Il est retourné à Montréal et il est devenu un chirurgien permanent à l’hôpital Royal Victoria. 
@@ -514,7 +526,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1986 : Prix de service distingué de l’hôpital Royal Victoria
 1993 : Membre de l'Ordre du Canada
